--- a/micromotion_measurements/EMM_min_pomocne_data.xlsx
+++ b/micromotion_measurements/EMM_min_pomocne_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive_vut\ÚPT\diplomka\Julia_vypocty_diplomka\EMM_minim\algoritmus minimalizace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive_vut\ÚPT\diplomka\Julia_vypocty_diplomka\micromotion_measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19290" windowHeight="7740" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dark_res" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="159">
   <si>
     <t>parametry:</t>
   </si>
@@ -475,6 +475,42 @@
   </si>
   <si>
     <t>-5 dbm</t>
+  </si>
+  <si>
+    <t>zkusim tyto data doplnit</t>
+  </si>
+  <si>
+    <t>09_05_2020_EMM_z_multiple_Vrf_945_doplneni</t>
+  </si>
+  <si>
+    <t>-4,87 dmb</t>
+  </si>
+  <si>
+    <t>doplneni dat</t>
+  </si>
+  <si>
+    <t>09_05_2020_EMM_z_multiple_Vrf_1221_doplneni</t>
+  </si>
+  <si>
+    <t>mereni axialniho EMM pro ruzne Vpp RF</t>
+  </si>
+  <si>
+    <t>10_05_2020_EMM_z_multiple_Vrf_1270_p1</t>
+  </si>
+  <si>
+    <t>10_05_2020_EMM_z_multiple_Vrf_1270_p2</t>
+  </si>
+  <si>
+    <t>cca</t>
+  </si>
+  <si>
+    <t>-2,65 dbm</t>
+  </si>
+  <si>
+    <t>10_05_2020_EMM_z_multiple_Vrf_596_p1</t>
+  </si>
+  <si>
+    <t>10_05_2020_EMM_z_multiple_Vrf_596_p2</t>
   </si>
 </sst>
 </file>
@@ -607,10 +643,10 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -619,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -642,7 +678,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -1015,7 +1055,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4626,10 +4665,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X132"/>
+  <dimension ref="A2:X177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="C152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K129" sqref="K129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4650,7 +4689,7 @@
     <col min="16" max="16" width="13.28515625" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" customWidth="1"/>
     <col min="18" max="18" width="31" customWidth="1"/>
-    <col min="19" max="19" width="30.42578125" customWidth="1"/>
+    <col min="19" max="19" width="32.7109375" customWidth="1"/>
     <col min="20" max="20" width="12.85546875" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
     <col min="23" max="23" width="24" customWidth="1"/>
@@ -7256,7 +7295,7 @@
         <v>256</v>
       </c>
       <c r="P91">
-        <f>$C$6/(H91-I91)</f>
+        <f t="shared" ref="P91:P96" si="5">$C$6/(H91-I91)</f>
         <v>142.85714285714286</v>
       </c>
       <c r="Q91">
@@ -7298,7 +7337,7 @@
         <v>256</v>
       </c>
       <c r="P92">
-        <f>$C$6/(H92-I92)</f>
+        <f t="shared" si="5"/>
         <v>157.89473684210526</v>
       </c>
       <c r="Q92">
@@ -7331,7 +7370,7 @@
         <v>256</v>
       </c>
       <c r="P93">
-        <f>$C$6/(H93-I93)</f>
+        <f t="shared" si="5"/>
         <v>157.89473684210526</v>
       </c>
       <c r="Q93">
@@ -7367,7 +7406,7 @@
         <v>256</v>
       </c>
       <c r="P94">
-        <f>$C$6/(H94-I94)</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="Q94">
@@ -7402,7 +7441,7 @@
         <v>256</v>
       </c>
       <c r="P95" s="1">
-        <f>$C$6/(H95-I95)</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="Q95" s="1">
@@ -7447,7 +7486,7 @@
         <v>256</v>
       </c>
       <c r="P96">
-        <f>$C$6/(H96-I96)</f>
+        <f t="shared" si="5"/>
         <v>142.85714285714286</v>
       </c>
       <c r="Q96">
@@ -8007,6 +8046,9 @@
         <v>143</v>
       </c>
       <c r="T116" s="9">
+        <v>0</v>
+      </c>
+      <c r="U116" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8037,7 +8079,7 @@
         <v>39.9</v>
       </c>
       <c r="O117" s="11">
-        <f t="shared" ref="O117:O123" si="5">(K117-L117)/(K117+L117)</f>
+        <f t="shared" ref="O117:O123" si="6">(K117-L117)/(K117+L117)</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="P117" s="11">
@@ -8049,6 +8091,9 @@
       </c>
       <c r="S117" s="11"/>
       <c r="T117" s="12">
+        <v>1</v>
+      </c>
+      <c r="U117" s="16">
         <v>1</v>
       </c>
     </row>
@@ -8079,7 +8124,7 @@
         <v>39.9</v>
       </c>
       <c r="O118" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="P118" s="11">
@@ -8091,6 +8136,9 @@
       </c>
       <c r="S118" s="11"/>
       <c r="T118" s="12">
+        <v>2</v>
+      </c>
+      <c r="U118" s="16">
         <v>2</v>
       </c>
     </row>
@@ -8121,7 +8169,7 @@
         <v>39.9</v>
       </c>
       <c r="O119" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
       <c r="P119" s="11">
@@ -8133,6 +8181,9 @@
       </c>
       <c r="S119" s="11"/>
       <c r="T119" s="12">
+        <v>3</v>
+      </c>
+      <c r="U119" s="16">
         <v>3</v>
       </c>
     </row>
@@ -8163,7 +8214,7 @@
         <v>39.9</v>
       </c>
       <c r="O120" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.152</v>
       </c>
       <c r="P120" s="11">
@@ -8175,6 +8226,9 @@
       </c>
       <c r="S120" s="11"/>
       <c r="T120" s="12">
+        <v>4</v>
+      </c>
+      <c r="U120" s="16">
         <v>4</v>
       </c>
     </row>
@@ -8205,7 +8259,7 @@
         <v>39.9</v>
       </c>
       <c r="O121" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.154</v>
       </c>
       <c r="P121" s="11">
@@ -8217,6 +8271,9 @@
       </c>
       <c r="S121" s="11"/>
       <c r="T121" s="12">
+        <v>5</v>
+      </c>
+      <c r="U121" s="16">
         <v>5</v>
       </c>
     </row>
@@ -8247,7 +8304,7 @@
         <v>39.9</v>
       </c>
       <c r="O122" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.156</v>
       </c>
       <c r="P122" s="11">
@@ -8259,6 +8316,9 @@
       </c>
       <c r="S122" s="11"/>
       <c r="T122" s="12">
+        <v>6</v>
+      </c>
+      <c r="U122" s="16">
         <v>6</v>
       </c>
     </row>
@@ -8289,7 +8349,7 @@
         <v>39.9</v>
       </c>
       <c r="O123" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="P123" s="6">
@@ -8303,130 +8363,173 @@
       <c r="T123" s="14">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" ht="15.75" thickBot="1">
-      <c r="B126" t="s">
-        <v>142</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="U123" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21">
+      <c r="B124" s="7"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="8"/>
+      <c r="O124" s="8"/>
+      <c r="P124" s="8"/>
+      <c r="Q124" s="8"/>
+      <c r="R124" s="8"/>
+      <c r="S124" s="8"/>
+      <c r="T124" s="9"/>
+    </row>
+    <row r="125" spans="1:21">
+      <c r="A125" s="18">
+        <v>43961</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="11"/>
+      <c r="O125" s="11"/>
+      <c r="P125" s="11"/>
+      <c r="Q125" s="11"/>
+      <c r="R125" s="11"/>
+      <c r="S125" s="11"/>
+      <c r="T125" s="12"/>
+    </row>
+    <row r="126" spans="1:21">
+      <c r="B126" s="10">
+        <v>1221</v>
+      </c>
+      <c r="C126" s="11">
+        <v>239</v>
+      </c>
+      <c r="D126" s="11">
+        <v>187</v>
+      </c>
+      <c r="E126" s="11">
+        <v>18</v>
+      </c>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11">
+        <v>3350</v>
+      </c>
+      <c r="J126" s="11">
+        <v>200</v>
+      </c>
+      <c r="K126" s="11">
+        <v>590</v>
+      </c>
+      <c r="L126" s="11">
+        <v>410</v>
+      </c>
+      <c r="M126" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N126" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O126" s="11">
+        <f t="shared" ref="O126:O129" si="7">(K126-L126)/(K126+L126)</f>
+        <v>0.18</v>
+      </c>
+      <c r="P126" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q126" s="11"/>
+      <c r="R126" s="11">
+        <v>80</v>
+      </c>
+      <c r="S126" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T126" s="12">
+        <v>0</v>
+      </c>
+      <c r="U126" s="16">
         <v>8</v>
       </c>
-      <c r="D126" t="s">
+    </row>
+    <row r="127" spans="1:21">
+      <c r="B127" s="10">
+        <v>1223</v>
+      </c>
+      <c r="C127" s="11">
+        <v>239</v>
+      </c>
+      <c r="D127" s="11">
+        <v>187</v>
+      </c>
+      <c r="E127" s="11">
+        <v>18</v>
+      </c>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11">
+        <v>37611159</v>
+      </c>
+      <c r="H127" s="11">
+        <v>346000225</v>
+      </c>
+      <c r="I127" s="11">
+        <v>3400</v>
+      </c>
+      <c r="J127" s="11">
+        <v>220</v>
+      </c>
+      <c r="K127" s="11">
+        <v>585</v>
+      </c>
+      <c r="L127" s="11">
+        <v>415</v>
+      </c>
+      <c r="M127" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N127" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O127" s="11">
+        <f t="shared" si="7"/>
+        <v>0.17</v>
+      </c>
+      <c r="P127" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q127" s="11"/>
+      <c r="R127" s="11">
+        <v>80</v>
+      </c>
+      <c r="S127" s="11"/>
+      <c r="T127" s="12">
+        <v>1</v>
+      </c>
+      <c r="U127" s="16">
         <v>9</v>
       </c>
-      <c r="E126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>22</v>
-      </c>
-      <c r="H126" t="s">
-        <v>23</v>
-      </c>
-      <c r="I126" t="s">
-        <v>10</v>
-      </c>
-      <c r="J126" t="s">
-        <v>16</v>
-      </c>
-      <c r="K126" t="s">
-        <v>11</v>
-      </c>
-      <c r="L126" t="s">
-        <v>12</v>
-      </c>
-      <c r="M126" t="s">
-        <v>13</v>
-      </c>
-      <c r="N126" t="s">
-        <v>14</v>
-      </c>
-      <c r="O126" t="s">
-        <v>86</v>
-      </c>
-      <c r="P126" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>89</v>
-      </c>
-      <c r="R126" t="s">
-        <v>57</v>
-      </c>
-      <c r="S126" t="s">
-        <v>15</v>
-      </c>
-      <c r="T126" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A127" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B127" s="7">
-        <v>945</v>
-      </c>
-      <c r="C127" s="8">
-        <v>239</v>
-      </c>
-      <c r="D127" s="8">
-        <v>187</v>
-      </c>
-      <c r="E127" s="8">
-        <v>18</v>
-      </c>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8">
-        <v>377611168</v>
-      </c>
-      <c r="H127" s="8">
-        <v>346000222</v>
-      </c>
-      <c r="I127" s="8">
-        <v>3200</v>
-      </c>
-      <c r="J127" s="8">
-        <v>200</v>
-      </c>
-      <c r="K127" s="8">
-        <v>600</v>
-      </c>
-      <c r="L127" s="8">
-        <v>400</v>
-      </c>
-      <c r="M127" s="8">
-        <v>42.2</v>
-      </c>
-      <c r="N127" s="8">
-        <v>39.9</v>
-      </c>
-      <c r="O127" s="8">
-        <f>(K127-L127)/(K127+L127)</f>
-        <v>0.2</v>
-      </c>
-      <c r="P127" s="8">
-        <v>256</v>
-      </c>
-      <c r="Q127" s="8">
-        <f xml:space="preserve"> $C$6/(I127-J127)</f>
-        <v>100</v>
-      </c>
-      <c r="R127" s="8">
-        <v>80</v>
-      </c>
-      <c r="S127" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="T127" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" ht="15.75" thickBot="1">
-      <c r="B128" s="10"/>
+    </row>
+    <row r="128" spans="1:21">
+      <c r="B128" s="10">
+        <v>1225</v>
+      </c>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
@@ -8434,16 +8537,16 @@
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
       <c r="I128" s="11">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J128" s="11">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="K128" s="11">
-        <v>577.5</v>
+        <v>580</v>
       </c>
       <c r="L128" s="11">
-        <v>422.5</v>
+        <v>420</v>
       </c>
       <c r="M128" s="11">
         <v>42.2</v>
@@ -8451,184 +8554,1630 @@
       <c r="N128" s="16">
         <v>39.9</v>
       </c>
-      <c r="O128" s="8">
-        <f t="shared" ref="O128:O132" si="6">(K128-L128)/(K128+L128)</f>
-        <v>0.155</v>
-      </c>
-      <c r="P128" s="11"/>
+      <c r="O128" s="11">
+        <f t="shared" si="7"/>
+        <v>0.16</v>
+      </c>
+      <c r="P128" s="16">
+        <v>256</v>
+      </c>
       <c r="Q128" s="11"/>
       <c r="R128" s="11">
         <v>80</v>
       </c>
       <c r="S128" s="11"/>
       <c r="T128" s="12">
+        <v>2</v>
+      </c>
+      <c r="U128" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" ht="15.75" thickBot="1">
+      <c r="B129" s="13">
+        <v>1223</v>
+      </c>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6">
+        <v>3600</v>
+      </c>
+      <c r="J129" s="6">
+        <v>260</v>
+      </c>
+      <c r="K129" s="6">
+        <v>560</v>
+      </c>
+      <c r="L129" s="6">
+        <v>440</v>
+      </c>
+      <c r="M129" s="6">
+        <v>42.2</v>
+      </c>
+      <c r="N129" s="17">
+        <v>39.9</v>
+      </c>
+      <c r="O129" s="6">
+        <f t="shared" si="7"/>
+        <v>0.12</v>
+      </c>
+      <c r="P129" s="17">
+        <v>256</v>
+      </c>
+      <c r="Q129" s="6"/>
+      <c r="R129" s="6">
+        <v>80</v>
+      </c>
+      <c r="S129" s="6"/>
+      <c r="T129" s="14">
+        <v>3</v>
+      </c>
+      <c r="U129" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" ht="15.75" thickBot="1">
+      <c r="B133" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" t="s">
+        <v>21</v>
+      </c>
+      <c r="G133" t="s">
+        <v>22</v>
+      </c>
+      <c r="H133" t="s">
+        <v>23</v>
+      </c>
+      <c r="I133" t="s">
+        <v>10</v>
+      </c>
+      <c r="J133" t="s">
+        <v>16</v>
+      </c>
+      <c r="K133" t="s">
+        <v>11</v>
+      </c>
+      <c r="L133" t="s">
+        <v>12</v>
+      </c>
+      <c r="M133" t="s">
+        <v>13</v>
+      </c>
+      <c r="N133" t="s">
+        <v>14</v>
+      </c>
+      <c r="O133" t="s">
+        <v>86</v>
+      </c>
+      <c r="P133" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>89</v>
+      </c>
+      <c r="R133" t="s">
+        <v>57</v>
+      </c>
+      <c r="S133" t="s">
+        <v>15</v>
+      </c>
+      <c r="T133" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21">
+      <c r="A134" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B134" s="7">
+        <v>945</v>
+      </c>
+      <c r="C134" s="8">
+        <v>239</v>
+      </c>
+      <c r="D134" s="8">
+        <v>187</v>
+      </c>
+      <c r="E134" s="8">
+        <v>18</v>
+      </c>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8">
+        <v>377611168</v>
+      </c>
+      <c r="H134" s="8">
+        <v>346000222</v>
+      </c>
+      <c r="I134" s="8">
+        <v>3200</v>
+      </c>
+      <c r="J134" s="8">
+        <v>200</v>
+      </c>
+      <c r="K134" s="8">
+        <v>600</v>
+      </c>
+      <c r="L134" s="8">
+        <v>400</v>
+      </c>
+      <c r="M134" s="8">
+        <v>42.2</v>
+      </c>
+      <c r="N134" s="8">
+        <v>39.9</v>
+      </c>
+      <c r="O134" s="8">
+        <f>(K134-L134)/(K134+L134)</f>
+        <v>0.2</v>
+      </c>
+      <c r="P134" s="8">
+        <v>256</v>
+      </c>
+      <c r="Q134" s="8">
+        <f xml:space="preserve"> $C$6/(I134-J134)</f>
+        <v>100</v>
+      </c>
+      <c r="R134" s="8">
+        <v>80</v>
+      </c>
+      <c r="S134" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="T134" s="9">
+        <v>0</v>
+      </c>
+      <c r="U134" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21">
+      <c r="B135" s="10"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11">
+        <v>3400</v>
+      </c>
+      <c r="J135" s="11">
+        <v>200</v>
+      </c>
+      <c r="K135" s="11">
+        <v>577.5</v>
+      </c>
+      <c r="L135" s="11">
+        <v>422.5</v>
+      </c>
+      <c r="M135" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N135" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O135" s="11">
+        <f t="shared" ref="O135:O143" si="8">(K135-L135)/(K135+L135)</f>
+        <v>0.155</v>
+      </c>
+      <c r="P135" s="11"/>
+      <c r="Q135" s="11"/>
+      <c r="R135" s="11">
+        <v>80</v>
+      </c>
+      <c r="S135" s="11"/>
+      <c r="T135" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B129" s="10">
+      <c r="U135">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21">
+      <c r="B136" s="10">
         <v>943</v>
       </c>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="11">
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11">
         <v>3400</v>
       </c>
-      <c r="J129" s="11">
+      <c r="J136" s="11">
         <v>220</v>
       </c>
-      <c r="K129" s="11">
+      <c r="K136" s="11">
         <v>575</v>
       </c>
-      <c r="L129" s="11">
+      <c r="L136" s="11">
         <v>425</v>
       </c>
-      <c r="M129" s="11">
+      <c r="M136" s="11">
         <v>42.2</v>
       </c>
-      <c r="N129" s="16">
+      <c r="N136" s="16">
         <v>39.9</v>
       </c>
-      <c r="O129" s="8">
-        <f t="shared" si="6"/>
+      <c r="O136" s="11">
+        <f t="shared" si="8"/>
         <v>0.15</v>
       </c>
-      <c r="P129" s="11"/>
-      <c r="Q129" s="11"/>
-      <c r="R129" s="11">
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="11">
         <v>80</v>
       </c>
-      <c r="S129" s="11"/>
-      <c r="T129" s="12">
+      <c r="S136" s="11"/>
+      <c r="T136" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B130" s="10"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
-      <c r="I130" s="11">
+      <c r="U136">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21">
+      <c r="B137" s="10"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11">
         <v>3400</v>
       </c>
-      <c r="J130" s="11">
+      <c r="J137" s="11">
         <v>220</v>
       </c>
-      <c r="K130" s="11">
+      <c r="K137" s="11">
         <v>572.5</v>
       </c>
-      <c r="L130" s="11">
+      <c r="L137" s="11">
         <v>427.5</v>
       </c>
-      <c r="M130" s="11">
+      <c r="M137" s="11">
         <v>42.2</v>
       </c>
-      <c r="N130" s="16">
+      <c r="N137" s="16">
         <v>39.9</v>
       </c>
-      <c r="O130" s="8">
-        <f t="shared" si="6"/>
+      <c r="O137" s="11">
+        <f t="shared" si="8"/>
         <v>0.14499999999999999</v>
       </c>
-      <c r="P130" s="11"/>
-      <c r="Q130" s="11"/>
-      <c r="R130" s="11">
+      <c r="P137" s="11"/>
+      <c r="Q137" s="11"/>
+      <c r="R137" s="11">
         <v>80</v>
       </c>
-      <c r="S130" s="11"/>
-      <c r="T130" s="12">
+      <c r="S137" s="11"/>
+      <c r="T137" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="131" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B131" s="10">
+      <c r="U137">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21">
+      <c r="B138" s="10">
         <v>942</v>
       </c>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="11">
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11">
         <v>3500</v>
       </c>
-      <c r="J131" s="11">
+      <c r="J138" s="11">
         <v>220</v>
       </c>
-      <c r="K131" s="11">
+      <c r="K138" s="11">
         <v>570</v>
       </c>
-      <c r="L131" s="11">
+      <c r="L138" s="11">
         <v>430</v>
       </c>
-      <c r="M131" s="11">
+      <c r="M138" s="11">
         <v>42.2</v>
       </c>
-      <c r="N131" s="16">
+      <c r="N138" s="16">
         <v>39.9</v>
       </c>
-      <c r="O131" s="8">
-        <f t="shared" si="6"/>
+      <c r="O138" s="11">
+        <f t="shared" si="8"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="P131" s="11"/>
-      <c r="Q131" s="11"/>
-      <c r="R131" s="11">
+      <c r="P138" s="11"/>
+      <c r="Q138" s="11"/>
+      <c r="R138" s="11">
         <v>80</v>
       </c>
-      <c r="S131" s="11"/>
-      <c r="T131" s="12">
+      <c r="S138" s="11"/>
+      <c r="T138" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B132" s="13">
+      <c r="U138">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" ht="15.75" thickBot="1">
+      <c r="B139" s="13">
         <v>941</v>
       </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6">
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6">
         <v>3500</v>
       </c>
-      <c r="J132" s="6">
+      <c r="J139" s="6">
         <v>260</v>
       </c>
-      <c r="K132" s="6">
+      <c r="K139" s="6">
         <v>550</v>
       </c>
-      <c r="L132" s="6">
+      <c r="L139" s="6">
         <v>450</v>
       </c>
-      <c r="M132" s="6">
+      <c r="M139" s="6">
         <v>42.2</v>
       </c>
-      <c r="N132" s="17">
+      <c r="N139" s="17">
         <v>39.9</v>
       </c>
-      <c r="O132" s="18">
-        <f t="shared" si="6"/>
+      <c r="O139" s="6">
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="P132" s="6"/>
-      <c r="Q132" s="6"/>
-      <c r="R132" s="6">
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="6">
         <v>80</v>
       </c>
-      <c r="S132" s="6"/>
-      <c r="T132" s="14">
+      <c r="S139" s="6"/>
+      <c r="T139" s="14">
         <v>5</v>
+      </c>
+      <c r="U139">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21">
+      <c r="B140" s="7"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="8"/>
+      <c r="M140" s="8"/>
+      <c r="N140" s="8"/>
+      <c r="O140" s="8"/>
+      <c r="P140" s="8"/>
+      <c r="Q140" s="8"/>
+      <c r="R140" s="8"/>
+      <c r="S140" s="8"/>
+      <c r="T140" s="9"/>
+    </row>
+    <row r="141" spans="1:21">
+      <c r="A141" s="19">
+        <v>43961</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="11"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+      <c r="O141" s="11"/>
+      <c r="P141" s="11"/>
+      <c r="Q141" s="11"/>
+      <c r="R141" s="11"/>
+      <c r="S141" s="11"/>
+      <c r="T141" s="12"/>
+    </row>
+    <row r="142" spans="1:21">
+      <c r="B142" s="10"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="16"/>
+      <c r="O142" s="11"/>
+      <c r="P142" s="11"/>
+      <c r="Q142" s="11"/>
+      <c r="R142" s="11"/>
+      <c r="S142" s="11"/>
+      <c r="T142" s="12"/>
+    </row>
+    <row r="143" spans="1:21">
+      <c r="A143" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" s="10">
+        <v>945</v>
+      </c>
+      <c r="C143" s="11">
+        <v>239</v>
+      </c>
+      <c r="D143" s="11">
+        <v>187</v>
+      </c>
+      <c r="E143" s="11">
+        <v>18</v>
+      </c>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11">
+        <v>377611162</v>
+      </c>
+      <c r="H143" s="11">
+        <v>346000222</v>
+      </c>
+      <c r="I143" s="11">
+        <v>3750</v>
+      </c>
+      <c r="J143" s="11">
+        <v>260</v>
+      </c>
+      <c r="K143" s="11">
+        <v>560</v>
+      </c>
+      <c r="L143" s="11">
+        <v>440</v>
+      </c>
+      <c r="M143" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N143" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O143" s="11">
+        <f t="shared" si="8"/>
+        <v>0.12</v>
+      </c>
+      <c r="P143" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q143" s="11"/>
+      <c r="R143" s="11">
+        <v>80</v>
+      </c>
+      <c r="S143" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="T143" s="12">
+        <v>0</v>
+      </c>
+      <c r="U143" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21">
+      <c r="B144" s="10">
+        <v>945</v>
+      </c>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11">
+        <v>3500</v>
+      </c>
+      <c r="J144" s="11">
+        <v>230</v>
+      </c>
+      <c r="K144" s="11">
+        <v>580</v>
+      </c>
+      <c r="L144" s="11">
+        <v>420</v>
+      </c>
+      <c r="M144" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N144" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O144" s="11">
+        <f t="shared" ref="O144:O145" si="9">(K144-L144)/(K144+L144)</f>
+        <v>0.16</v>
+      </c>
+      <c r="P144" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q144" s="11"/>
+      <c r="R144" s="11">
+        <v>80</v>
+      </c>
+      <c r="S144" s="11"/>
+      <c r="T144" s="12">
+        <v>1</v>
+      </c>
+      <c r="U144" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23">
+      <c r="B145" s="10">
+        <v>945</v>
+      </c>
+      <c r="C145" s="11">
+        <v>239</v>
+      </c>
+      <c r="D145" s="11">
+        <v>187</v>
+      </c>
+      <c r="E145" s="11">
+        <v>18</v>
+      </c>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11">
+        <v>3450</v>
+      </c>
+      <c r="J145" s="11">
+        <v>220</v>
+      </c>
+      <c r="K145" s="11">
+        <v>585</v>
+      </c>
+      <c r="L145" s="11">
+        <v>415</v>
+      </c>
+      <c r="M145" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N145" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O145" s="11">
+        <f t="shared" si="9"/>
+        <v>0.17</v>
+      </c>
+      <c r="P145" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q145" s="11"/>
+      <c r="R145" s="11">
+        <v>80</v>
+      </c>
+      <c r="S145" s="11"/>
+      <c r="T145" s="12">
+        <v>2</v>
+      </c>
+      <c r="U145" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" ht="15.75" thickBot="1">
+      <c r="B146" s="13"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6">
+        <v>3550</v>
+      </c>
+      <c r="J146" s="6">
+        <v>200</v>
+      </c>
+      <c r="K146" s="6">
+        <v>590</v>
+      </c>
+      <c r="L146" s="6">
+        <v>410</v>
+      </c>
+      <c r="M146" s="6">
+        <v>42.2</v>
+      </c>
+      <c r="N146" s="17">
+        <v>39.9</v>
+      </c>
+      <c r="O146" s="6">
+        <f t="shared" ref="O146" si="10">(K146-L146)/(K146+L146)</f>
+        <v>0.18</v>
+      </c>
+      <c r="P146" s="17">
+        <v>256</v>
+      </c>
+      <c r="Q146" s="6"/>
+      <c r="R146" s="6">
+        <v>80</v>
+      </c>
+      <c r="S146" s="6"/>
+      <c r="T146" s="14">
+        <v>3</v>
+      </c>
+      <c r="U146" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A150" s="20">
+        <v>43961</v>
+      </c>
+      <c r="B150" s="21"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="21"/>
+      <c r="I150" s="21"/>
+      <c r="J150" s="21"/>
+      <c r="K150" s="21"/>
+      <c r="L150" s="21"/>
+      <c r="M150" s="21"/>
+      <c r="N150" s="21"/>
+      <c r="O150" s="21"/>
+      <c r="P150" s="21"/>
+      <c r="Q150" s="21"/>
+      <c r="R150" s="21"/>
+      <c r="S150" s="21"/>
+      <c r="T150" s="21"/>
+      <c r="U150" s="21"/>
+      <c r="V150" s="21"/>
+      <c r="W150" s="21"/>
+    </row>
+    <row r="151" spans="1:23" ht="15.75" thickTop="1"/>
+    <row r="152" spans="1:23">
+      <c r="B152" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" t="s">
+        <v>142</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" t="s">
+        <v>21</v>
+      </c>
+      <c r="G154" t="s">
+        <v>22</v>
+      </c>
+      <c r="H154" t="s">
+        <v>23</v>
+      </c>
+      <c r="I154" t="s">
+        <v>10</v>
+      </c>
+      <c r="J154" t="s">
+        <v>16</v>
+      </c>
+      <c r="K154" t="s">
+        <v>11</v>
+      </c>
+      <c r="L154" t="s">
+        <v>12</v>
+      </c>
+      <c r="M154" t="s">
+        <v>13</v>
+      </c>
+      <c r="N154" t="s">
+        <v>14</v>
+      </c>
+      <c r="O154" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P154" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>89</v>
+      </c>
+      <c r="R154" t="s">
+        <v>57</v>
+      </c>
+      <c r="S154" t="s">
+        <v>15</v>
+      </c>
+      <c r="T154" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23">
+      <c r="A155" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" s="7">
+        <v>1269</v>
+      </c>
+      <c r="C155" s="8">
+        <v>240</v>
+      </c>
+      <c r="D155" s="8">
+        <v>187</v>
+      </c>
+      <c r="E155" s="8">
+        <v>18</v>
+      </c>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8">
+        <v>377611150</v>
+      </c>
+      <c r="H155" s="8">
+        <v>346000222</v>
+      </c>
+      <c r="I155" s="8">
+        <v>3500</v>
+      </c>
+      <c r="J155" s="8">
+        <v>260</v>
+      </c>
+      <c r="K155" s="8">
+        <v>560</v>
+      </c>
+      <c r="L155" s="8">
+        <v>440</v>
+      </c>
+      <c r="M155" s="8">
+        <v>42.2</v>
+      </c>
+      <c r="N155" s="8">
+        <v>39.9</v>
+      </c>
+      <c r="O155" s="8">
+        <f>(K155-L155)/(K155+L155)</f>
+        <v>0.12</v>
+      </c>
+      <c r="P155" s="22">
+        <v>256</v>
+      </c>
+      <c r="Q155" s="8"/>
+      <c r="R155" s="8">
+        <v>80</v>
+      </c>
+      <c r="S155" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="T155" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23">
+      <c r="B156" s="10">
+        <v>1270</v>
+      </c>
+      <c r="C156" s="11">
+        <v>240</v>
+      </c>
+      <c r="D156" s="11">
+        <v>187</v>
+      </c>
+      <c r="E156" s="11">
+        <v>18</v>
+      </c>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11">
+        <v>3150</v>
+      </c>
+      <c r="J156" s="11">
+        <v>250</v>
+      </c>
+      <c r="K156" s="11">
+        <v>550</v>
+      </c>
+      <c r="L156" s="11">
+        <v>450</v>
+      </c>
+      <c r="M156" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N156" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O156" s="11">
+        <f>(K156-L156)/(K156+L156)</f>
+        <v>0.1</v>
+      </c>
+      <c r="P156" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q156" s="11"/>
+      <c r="R156" s="11">
+        <v>80</v>
+      </c>
+      <c r="S156" s="11"/>
+      <c r="T156" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23">
+      <c r="B157" s="10">
+        <v>1270</v>
+      </c>
+      <c r="C157" s="11">
+        <v>240</v>
+      </c>
+      <c r="D157" s="11">
+        <v>187</v>
+      </c>
+      <c r="E157" s="11">
+        <v>18</v>
+      </c>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11">
+        <v>3500</v>
+      </c>
+      <c r="J157" s="11">
+        <v>270</v>
+      </c>
+      <c r="K157" s="11">
+        <v>570</v>
+      </c>
+      <c r="L157" s="11">
+        <v>430</v>
+      </c>
+      <c r="M157" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N157" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O157" s="11">
+        <f t="shared" ref="O157:O164" si="11">(K157-L157)/(K157+L157)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P157" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q157" s="11"/>
+      <c r="R157" s="11">
+        <v>80</v>
+      </c>
+      <c r="S157" s="11"/>
+      <c r="T157" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23">
+      <c r="B158" s="10">
+        <v>1270</v>
+      </c>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11">
+        <v>3250</v>
+      </c>
+      <c r="J158" s="11">
+        <v>260</v>
+      </c>
+      <c r="K158" s="11">
+        <v>572.5</v>
+      </c>
+      <c r="L158" s="11">
+        <v>427.5</v>
+      </c>
+      <c r="M158" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N158" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O158" s="11">
+        <f t="shared" si="11"/>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="P158" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q158" s="11"/>
+      <c r="R158" s="11">
+        <v>80</v>
+      </c>
+      <c r="S158" s="11"/>
+      <c r="T158" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23">
+      <c r="B159" s="10">
+        <v>1270</v>
+      </c>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11">
+        <v>3450</v>
+      </c>
+      <c r="J159" s="11">
+        <v>250</v>
+      </c>
+      <c r="K159" s="11">
+        <v>575</v>
+      </c>
+      <c r="L159" s="11">
+        <v>425</v>
+      </c>
+      <c r="M159" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N159" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O159" s="11">
+        <f t="shared" si="11"/>
+        <v>0.15</v>
+      </c>
+      <c r="P159" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q159" s="11"/>
+      <c r="R159" s="11">
+        <v>80</v>
+      </c>
+      <c r="S159" s="11"/>
+      <c r="T159" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23">
+      <c r="B160" s="10">
+        <v>1270</v>
+      </c>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="11">
+        <v>3300</v>
+      </c>
+      <c r="J160" s="11">
+        <v>260</v>
+      </c>
+      <c r="K160" s="11">
+        <v>577</v>
+      </c>
+      <c r="L160" s="11">
+        <v>423</v>
+      </c>
+      <c r="M160" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N160" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O160" s="11">
+        <f t="shared" si="11"/>
+        <v>0.154</v>
+      </c>
+      <c r="P160" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q160" s="11"/>
+      <c r="R160" s="11">
+        <v>80</v>
+      </c>
+      <c r="S160" s="11"/>
+      <c r="T160" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="2:20">
+      <c r="B161" s="10">
+        <v>1271</v>
+      </c>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11">
+        <v>3400</v>
+      </c>
+      <c r="J161" s="11">
+        <v>260</v>
+      </c>
+      <c r="K161" s="11">
+        <v>580</v>
+      </c>
+      <c r="L161" s="11">
+        <v>420</v>
+      </c>
+      <c r="M161" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N161" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O161" s="11">
+        <f t="shared" si="11"/>
+        <v>0.16</v>
+      </c>
+      <c r="P161" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q161" s="11"/>
+      <c r="R161" s="11">
+        <v>80</v>
+      </c>
+      <c r="S161" s="11"/>
+      <c r="T161" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B162" s="10">
+        <v>1272</v>
+      </c>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="11">
+        <v>3400</v>
+      </c>
+      <c r="J162" s="11">
+        <v>260</v>
+      </c>
+      <c r="K162" s="11">
+        <v>585</v>
+      </c>
+      <c r="L162" s="11">
+        <v>415</v>
+      </c>
+      <c r="M162" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N162" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O162" s="11">
+        <f t="shared" si="11"/>
+        <v>0.17</v>
+      </c>
+      <c r="P162" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q162" s="11"/>
+      <c r="R162" s="11">
+        <v>80</v>
+      </c>
+      <c r="S162" s="11"/>
+      <c r="T162" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="2:20">
+      <c r="B163" s="10">
+        <v>1272</v>
+      </c>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11">
+        <v>3500</v>
+      </c>
+      <c r="J163" s="11">
+        <v>240</v>
+      </c>
+      <c r="K163" s="11">
+        <v>590</v>
+      </c>
+      <c r="L163" s="11">
+        <v>410</v>
+      </c>
+      <c r="M163" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N163" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O163" s="11">
+        <f t="shared" si="11"/>
+        <v>0.18</v>
+      </c>
+      <c r="P163" s="16">
+        <v>256</v>
+      </c>
+      <c r="Q163" s="11"/>
+      <c r="R163" s="11">
+        <v>80</v>
+      </c>
+      <c r="S163" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="T163" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B164" s="13">
+        <v>1271</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6">
+        <v>3150</v>
+      </c>
+      <c r="J164" s="6">
+        <v>260</v>
+      </c>
+      <c r="K164" s="6">
+        <v>600</v>
+      </c>
+      <c r="L164" s="6">
+        <v>400</v>
+      </c>
+      <c r="M164" s="6">
+        <v>42.2</v>
+      </c>
+      <c r="N164" s="6">
+        <v>39.9</v>
+      </c>
+      <c r="O164" s="6">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="P164" s="17">
+        <v>256</v>
+      </c>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="6">
+        <v>80</v>
+      </c>
+      <c r="S164" s="6"/>
+      <c r="T164" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:20" ht="15.75" thickBot="1"/>
+    <row r="167" spans="2:20">
+      <c r="B167">
+        <v>596</v>
+      </c>
+      <c r="C167">
+        <v>240</v>
+      </c>
+      <c r="D167">
+        <v>187</v>
+      </c>
+      <c r="E167">
+        <v>18</v>
+      </c>
+      <c r="G167">
+        <v>37761113</v>
+      </c>
+      <c r="H167">
+        <v>346000222</v>
+      </c>
+      <c r="I167">
+        <v>3200</v>
+      </c>
+      <c r="J167">
+        <v>250</v>
+      </c>
+      <c r="K167" s="11">
+        <v>600</v>
+      </c>
+      <c r="L167" s="11">
+        <v>400</v>
+      </c>
+      <c r="M167" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N167" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O167" s="11">
+        <f t="shared" ref="O167:O174" si="12">(K167-L167)/(K167+L167)</f>
+        <v>0.2</v>
+      </c>
+      <c r="P167" s="16">
+        <v>256</v>
+      </c>
+      <c r="R167">
+        <v>80</v>
+      </c>
+      <c r="S167" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="T167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:20">
+      <c r="B168">
+        <v>596</v>
+      </c>
+      <c r="I168">
+        <v>3300</v>
+      </c>
+      <c r="J168">
+        <v>260</v>
+      </c>
+      <c r="K168" s="11">
+        <v>590</v>
+      </c>
+      <c r="L168" s="11">
+        <v>410</v>
+      </c>
+      <c r="M168" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N168" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O168" s="11">
+        <f t="shared" si="12"/>
+        <v>0.18</v>
+      </c>
+      <c r="P168" s="16">
+        <v>256</v>
+      </c>
+      <c r="T168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:20">
+      <c r="B169">
+        <v>594</v>
+      </c>
+      <c r="I169">
+        <v>3400</v>
+      </c>
+      <c r="J169">
+        <v>250</v>
+      </c>
+      <c r="K169" s="11">
+        <v>585</v>
+      </c>
+      <c r="L169" s="11">
+        <v>415</v>
+      </c>
+      <c r="M169" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N169" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O169" s="11">
+        <f t="shared" si="12"/>
+        <v>0.17</v>
+      </c>
+      <c r="P169" s="16">
+        <v>256</v>
+      </c>
+      <c r="T169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="2:20">
+      <c r="B170">
+        <v>593</v>
+      </c>
+      <c r="I170">
+        <v>3150</v>
+      </c>
+      <c r="J170">
+        <v>250</v>
+      </c>
+      <c r="K170" s="11">
+        <v>580</v>
+      </c>
+      <c r="L170" s="11">
+        <v>420</v>
+      </c>
+      <c r="M170" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N170" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O170" s="11">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
+      <c r="P170" s="16">
+        <v>256</v>
+      </c>
+      <c r="T170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="2:20">
+      <c r="B171">
+        <v>595</v>
+      </c>
+      <c r="I171">
+        <v>3300</v>
+      </c>
+      <c r="J171">
+        <v>260</v>
+      </c>
+      <c r="K171" s="11">
+        <v>577</v>
+      </c>
+      <c r="L171" s="11">
+        <v>423</v>
+      </c>
+      <c r="M171" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N171" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O171" s="11">
+        <f t="shared" si="12"/>
+        <v>0.154</v>
+      </c>
+      <c r="P171" s="16">
+        <v>256</v>
+      </c>
+      <c r="T171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="2:20">
+      <c r="B172">
+        <v>593</v>
+      </c>
+      <c r="I172">
+        <v>3150</v>
+      </c>
+      <c r="J172">
+        <v>260</v>
+      </c>
+      <c r="K172" s="11">
+        <v>575</v>
+      </c>
+      <c r="L172" s="11">
+        <v>425</v>
+      </c>
+      <c r="M172" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N172" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O172" s="11">
+        <f t="shared" si="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="T172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="2:20">
+      <c r="B173">
+        <v>594</v>
+      </c>
+      <c r="I173">
+        <v>2950</v>
+      </c>
+      <c r="J173">
+        <v>220</v>
+      </c>
+      <c r="K173" s="11">
+        <v>572.5</v>
+      </c>
+      <c r="L173" s="11">
+        <v>427.5</v>
+      </c>
+      <c r="M173" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N173" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O173" s="11">
+        <f t="shared" si="12"/>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="T173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B174">
+        <v>593</v>
+      </c>
+      <c r="I174">
+        <v>3100</v>
+      </c>
+      <c r="J174">
+        <v>260</v>
+      </c>
+      <c r="K174" s="11">
+        <v>570</v>
+      </c>
+      <c r="L174" s="11">
+        <v>430</v>
+      </c>
+      <c r="M174" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N174" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O174" s="11">
+        <f t="shared" si="12"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T174">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="2:20">
+      <c r="B175">
+        <v>594</v>
+      </c>
+      <c r="I175">
+        <v>3100</v>
+      </c>
+      <c r="J175">
+        <v>240</v>
+      </c>
+      <c r="K175" s="11">
+        <v>560</v>
+      </c>
+      <c r="L175" s="11">
+        <v>440</v>
+      </c>
+      <c r="M175" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N175" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O175" s="11">
+        <f>(K175-L175)/(K175+L175)</f>
+        <v>0.12</v>
+      </c>
+      <c r="S175" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="T175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:20">
+      <c r="B176">
+        <v>593</v>
+      </c>
+      <c r="I176">
+        <v>3100</v>
+      </c>
+      <c r="J176">
+        <v>260</v>
+      </c>
+      <c r="K176" s="11">
+        <v>550</v>
+      </c>
+      <c r="L176" s="11">
+        <v>450</v>
+      </c>
+      <c r="M176" s="11">
+        <v>42.2</v>
+      </c>
+      <c r="N176" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="O176" s="11">
+        <f>(K176-L176)/(K176+L176)</f>
+        <v>0.1</v>
+      </c>
+      <c r="P176" s="16">
+        <v>256</v>
+      </c>
+      <c r="T176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="2:20">
+      <c r="B177">
+        <v>594</v>
+      </c>
+      <c r="I177">
+        <v>3150</v>
+      </c>
+      <c r="J177">
+        <v>260</v>
+      </c>
+      <c r="K177" s="16">
+        <v>500</v>
+      </c>
+      <c r="L177" s="16">
+        <v>500</v>
+      </c>
+      <c r="M177" s="16">
+        <v>42.2</v>
+      </c>
+      <c r="N177" s="16">
+        <v>39.9</v>
+      </c>
+      <c r="O177" s="16">
+        <f>(K177-L177)/(K177+L177)</f>
+        <v>0</v>
+      </c>
+      <c r="P177" s="16">
+        <v>256</v>
+      </c>
+      <c r="T177">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
